--- a/participants/participant_17/participant_17_task_orders.xlsx
+++ b/participants/participant_17/participant_17_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16498730545347688" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16498730578185344" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16498730578195338" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16498730578670354" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16498730579300776" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16502911679634035" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16502911714782865" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16502911714802582" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16502911715412538" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16502911716352825" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16498730544997613.csv</t>
+          <t>go_stims-1650291167933398.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16498730545177596.csv</t>
+          <t>GNG_stims-1650291167945397.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-164987305451876.csv</t>
+          <t>go_stims-1650291167946397.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16498730545337932.csv</t>
+          <t>GNG_stims-16502911679614322.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TB-16498730569154189.csv</t>
+          <t>ZB-match_1-16502911681981401.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OB-16498730564412062.csv</t>
+          <t>OB-16502911692421424.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TB-16498730577925348.csv</t>
+          <t>TB-16502911698031068.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZB-match_4-16498730549130583.csv</t>
+          <t>TB-16502911714662495.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>OB-1649873055653057.csv</t>
+          <t>OB-16502911685731049.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TB-164987305760757.csv</t>
+          <t>ZB-match_0-16502911680303955.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OB-16498730550580573.csv</t>
+          <t>ZB-match_6-16502911681101093.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ZB-match_4-16498730549420233.csv</t>
+          <t>OB-16502911693641357.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ZB-match_7-16498730546978683.csv</t>
+          <t>TB-1650291169514105.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-1649873057834568.csv</t>
+          <t>MM_stims-16502911714932532.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16498730578205347.csv</t>
+          <t>ZM_stims-16502911714812539.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16498730578500705.csv</t>
+          <t>MM_stims-1650291171524285.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16498730578355484.csv</t>
+          <t>ZM_stims-1650291171494251.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16498730578660703.csv</t>
+          <t>MM_stims-16502911715402524.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16498730578510346.csv</t>
+          <t>ZM_stims-16502911715252557.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-1649873057898071.csv</t>
+          <t>SAT_stims-16502911715712845.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-16498730578700347.csv</t>
+          <t>vSAT_stims-16502911716192508.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-16498730578830366.csv</t>
+          <t>vSAT_stims-16502911715892506.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-16498730579140704.csv</t>
+          <t>SAT_stims-1650291171545252.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_17/participant_17_task_orders.xlsx
+++ b/participants/participant_17/participant_17_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16502911679634035" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16502911714782865" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16502911714802582" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16502911715412538" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16502911716352825" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-165047781443066" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16504778166236663" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16504778166296926" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16504778166876929" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16504778167516952" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-1650291167933398.csv</t>
+          <t>go_stims-16504778144006631.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-1650291167945397.csv</t>
+          <t>GNG_stims-16504778144136927.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-1650291167946397.csv</t>
+          <t>go_stims-16504778144146588.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16502911679614322.csv</t>
+          <t>GNG_stims-16504778144296672.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ZB-match_1-16502911681981401.csv</t>
+          <t>ZB-match_5-16504778151576893.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OB-16502911692421424.csv</t>
+          <t>ZB-match_7-1650477814480693.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TB-16502911698031068.csv</t>
+          <t>TB-16504778164236903.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TB-16502911714662495.csv</t>
+          <t>OB-16504778157666597.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>OB-16502911685731049.csv</t>
+          <t>TB-16504778161136937.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZB-match_0-16502911680303955.csv</t>
+          <t>OB-1650477815679693.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ZB-match_6-16502911681101093.csv</t>
+          <t>TB-16504778166026583.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>OB-16502911693641357.csv</t>
+          <t>OB-16504778152706635.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TB-1650291169514105.csv</t>
+          <t>ZB-match_6-16504778145616717.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16502911714932532.csv</t>
+          <t>MM_stims-16504778166556928.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16502911714812539.csv</t>
+          <t>ZM_stims-16504778166316614.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-1650291171524285.csv</t>
+          <t>MM_stims-16504778166716588.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-1650291171494251.csv</t>
+          <t>ZM_stims-16504778166556928.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16502911715402524.csv</t>
+          <t>MM_stims-16504778166876929.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16502911715252557.csv</t>
+          <t>ZM_stims-1650477816672665.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-16502911715712845.csv</t>
+          <t>SAT_stims-16504778166906624.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-16502911716192508.csv</t>
+          <t>vSAT_stims-1650477816719693.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-16502911715892506.csv</t>
+          <t>vSAT_stims-1650477816735694.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-1650291171545252.csv</t>
+          <t>SAT_stims-16504778167036605.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_17/participant_17_task_orders.xlsx
+++ b/participants/participant_17/participant_17_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-165047781443066" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16504778166236663" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16504778166296926" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16504778166876929" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16504778167516952" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16509961042313364" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-1650996105753365" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-1650996105753365" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-1650996105801384" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16509961058653858" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16504778144006631.csv</t>
+          <t>go_stims-1650996104191329.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16504778144136927.csv</t>
+          <t>GNG_stims-16509961042153344.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16504778144146588.csv</t>
+          <t>go_stims-16509961042153344.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16504778144296672.csv</t>
+          <t>GNG_stims-16509961042313364.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ZB-match_5-16504778151576893.csv</t>
+          <t>TB-16509961056573522.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZB-match_7-1650477814480693.csv</t>
+          <t>ZB-match_6-16509961045853484.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TB-16504778164236903.csv</t>
+          <t>OB-16509961055853527.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OB-16504778157666597.csv</t>
+          <t>ZB-match_8-165099610441531.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TB-16504778161136937.csv</t>
+          <t>TB-16509961057373567.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>OB-1650477815679693.csv</t>
+          <t>TB-1650996105601349.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TB-16504778166026583.csv</t>
+          <t>ZB-match_0-16509961045131762.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>OB-16504778152706635.csv</t>
+          <t>OB-16509961053933468.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ZB-match_6-16504778145616717.csv</t>
+          <t>OB-16509961054893525.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16504778166556928.csv</t>
+          <t>MM_stims-1650996105769371.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16504778166316614.csv</t>
+          <t>ZM_stims-1650996105753365.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16504778166716588.csv</t>
+          <t>MM_stims-16509961057853591.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16504778166556928.csv</t>
+          <t>ZM_stims-1650996105769371.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16504778166876929.csv</t>
+          <t>MM_stims-1650996105801384.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-1650477816672665.csv</t>
+          <t>ZM_stims-16509961057853591.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-16504778166906624.csv</t>
+          <t>vSAT_stims-16509961058493776.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-1650477816719693.csv</t>
+          <t>SAT_stims-1650996105801384.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-1650477816735694.csv</t>
+          <t>SAT_stims-1650996105817358.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-16504778167036605.csv</t>
+          <t>vSAT_stims-16509961058333912.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_17/participant_17_task_orders.xlsx
+++ b/participants/participant_17/participant_17_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16509961042313364" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-1650996105753365" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-1650996105753365" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-1650996105801384" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16509961058653858" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-1651168698087312" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-1651168701107487" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16511687011094782" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16511687011714807" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-1651168701249513" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-1650996104191329.csv</t>
+          <t>go_stims-16511686980563128.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16509961042153344.csv</t>
+          <t>GNG_stims-1651168698071312.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16509961042153344.csv</t>
+          <t>go_stims-16511686980723164.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16509961042313364.csv</t>
+          <t>GNG_stims-16511686980863106.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TB-16509961056573522.csv</t>
+          <t>TB-16511687010074766.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZB-match_6-16509961045853484.csv</t>
+          <t>ZB-match_0-16511686986763206.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OB-16509961055853527.csv</t>
+          <t>OB-16511687001125364.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZB-match_8-165099610441531.csv</t>
+          <t>TB-165116870030151.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TB-16509961057373567.csv</t>
+          <t>ZB-match_2-16511686988243175.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TB-1650996105601349.csv</t>
+          <t>ZB-match_6-16511686982903147.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ZB-match_0-16509961045131762.csv</t>
+          <t>OB-1651168699644314.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>OB-16509961053933468.csv</t>
+          <t>OB-1651168700138498.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>OB-16509961054893525.csv</t>
+          <t>TB-16511687010904787.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-1650996105769371.csv</t>
+          <t>MM_stims-16511687011234758.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-1650996105753365.csv</t>
+          <t>ZM_stims-1651168701111477.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16509961057853591.csv</t>
+          <t>MM_stims-1651168701154512.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-1650996105769371.csv</t>
+          <t>ZM_stims-16511687011234758.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-1650996105801384.csv</t>
+          <t>MM_stims-16511687011704917.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16509961057853591.csv</t>
+          <t>ZM_stims-16511687011554773.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-16509961058493776.csv</t>
+          <t>vSAT_stims-16511687012334793.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-1650996105801384.csv</t>
+          <t>vSAT_stims-1651168701217489.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-1650996105817358.csv</t>
+          <t>SAT_stims-16511687011774805.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-16509961058333912.csv</t>
+          <t>SAT_stims-16511687012034788.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_17/participant_17_task_orders.xlsx
+++ b/participants/participant_17/participant_17_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-1651168698087312" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-1651168701107487" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16511687011094782" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16511687011714807" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-1651168701249513" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16512555260989418" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16512555283571243" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16512555283591282" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16512555284061313" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-1651255528481124" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16511686980563128.csv</t>
+          <t>go_stims-16512555260699427.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-1651168698071312.csv</t>
+          <t>GNG_stims-16512555260819428.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16511686980723164.csv</t>
+          <t>go_stims-16512555260829427.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16511686980863106.csv</t>
+          <t>GNG_stims-16512555260979419.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TB-16511687010074766.csv</t>
+          <t>TB-16512555283271232.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZB-match_0-16511686986763206.csv</t>
+          <t>OB-16512555271331239.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OB-16511687001125364.csv</t>
+          <t>ZB-match_6-1651255526896128.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TB-165116870030151.csv</t>
+          <t>TB-16512555283431256.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ZB-match_2-16511686988243175.csv</t>
+          <t>OB-16512555276121247.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZB-match_6-16511686982903147.csv</t>
+          <t>OB-16512555278871264.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OB-1651168699644314.csv</t>
+          <t>ZB-match_9-1651255526447129.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>OB-1651168700138498.csv</t>
+          <t>TB-16512555281351242.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TB-16511687010904787.csv</t>
+          <t>ZB-match_3-1651255526973123.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16511687011234758.csv</t>
+          <t>MM_stims-16512555283731258.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-1651168701111477.csv</t>
+          <t>ZM_stims-16512555283611243.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-1651168701154512.csv</t>
+          <t>MM_stims-16512555283891246.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16511687011234758.csv</t>
+          <t>ZM_stims-16512555283741279.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16511687011704917.csv</t>
+          <t>MM_stims-16512555284051254.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16511687011554773.csv</t>
+          <t>ZM_stims-16512555283901274.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-16511687012334793.csv</t>
+          <t>SAT_stims-16512555284351258.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-1651168701217489.csv</t>
+          <t>vSAT_stims-16512555284501288.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-16511687011774805.csv</t>
+          <t>SAT_stims-1651255528412129.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-16511687012034788.csv</t>
+          <t>vSAT_stims-16512555284651225.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_17/participant_17_task_orders.xlsx
+++ b/participants/participant_17/participant_17_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16512555260989418" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16512555283571243" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16512555283591282" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16512555284061313" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-1651255528481124" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="vSAT_TO-16515889578905835" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="RS_TO-16515889578926346" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="GNG_TO-16515889579231825" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="NB_TO-16515889606327438" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="TOL_TO-16515889606957142" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16512555260699427.csv</t>
+          <t>vSAT_stims-16515889578590481.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16512555260819428.csv</t>
+          <t>SAT_stims-16515889578203857.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16512555260829427.csv</t>
+          <t>SAT_stims-1651588957842478.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16512555260979419.csv</t>
+          <t>vSAT_stims-16515889578757164.csv</t>
         </is>
       </c>
     </row>
@@ -490,6 +490,118 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>task_order</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>eyes open</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>eyes closed</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>task_order</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>go_stims-16515889578945253.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>GNG_stims-16515889579079013.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>go_stims-16515889579088953.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>GNG_stims-16515889579221754.csv</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -516,7 +628,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TB-16512555283271232.csv</t>
+          <t>TB-16515889597516913.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +638,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OB-16512555271331239.csv</t>
+          <t>TB-16515889606153119.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +648,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ZB-match_6-1651255526896128.csv</t>
+          <t>OB-1651588959688319.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +658,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TB-16512555283431256.csv</t>
+          <t>ZB-match_5-16515889584501476.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +668,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>OB-16512555276121247.csv</t>
+          <t>TB-16515889602080026.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +678,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>OB-16512555278871264.csv</t>
+          <t>ZB-match_7-16515889581958792.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +688,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ZB-match_9-1651255526447129.csv</t>
+          <t>ZB-match_1-1651588958102251.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +698,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TB-16512555281351242.csv</t>
+          <t>OB-16515889594233882.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +708,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ZB-match_3-1651255526973123.csv</t>
+          <t>OB-1651588958770334.csv</t>
         </is>
       </c>
     </row>
@@ -605,53 +717,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>task_order</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>eyes closed</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>eyes open</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -678,7 +744,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16512555283731258.csv</t>
+          <t>MM_stims-16515889606640182.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +754,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16512555283611243.csv</t>
+          <t>ZM_stims-16515889606392279.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +764,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16512555283891246.csv</t>
+          <t>MM_stims-1651588960679606.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +774,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16512555283741279.csv</t>
+          <t>ZM_stims-16515889606650198.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +784,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16512555284051254.csv</t>
+          <t>MM_stims-16515889606957142.csv</t>
         </is>
       </c>
     </row>
@@ -728,73 +794,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16512555283901274.csv</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>task_order</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>SAT_stims-16512555284351258.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>vSAT_stims-16512555284501288.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>SAT_stims-1651255528412129.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>vSAT_stims-16512555284651225.csv</t>
+          <t>ZM_stims-16515889606805654.csv</t>
         </is>
       </c>
     </row>
